--- a/Documents/IterationSchedual.xlsx
+++ b/Documents/IterationSchedual.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的文档\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Homework\SEP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14535" windowHeight="8745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Implementation</t>
   </si>
   <si>
-    <t>Iteration 1  Schedual</t>
-  </si>
-  <si>
     <t>Create the draft document</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>Wednesday,05/09/2018</t>
+  </si>
+  <si>
+    <t>Release 1  Schedual</t>
   </si>
 </sst>
 </file>
@@ -632,7 +632,7 @@
   <dimension ref="A2:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" activeCellId="1" sqref="E20 E22"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +648,7 @@
     <row r="2" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2"/>
       <c r="C2" s="11" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -680,70 +680,70 @@
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
@@ -755,106 +755,106 @@
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="C12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="D13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="D14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -868,19 +868,19 @@
     </row>
     <row r="18" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -894,19 +894,19 @@
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
@@ -920,19 +920,19 @@
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -943,6 +943,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/IterationSchedual.xlsx
+++ b/Documents/IterationSchedual.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>Start Date</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>Create Use Cases Narratives</t>
-  </si>
-  <si>
-    <t>1 Days</t>
   </si>
   <si>
     <t>Tusday,14/08/2018</t>
@@ -631,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +645,7 @@
     <row r="2" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2"/>
       <c r="C2" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -714,13 +711,13 @@
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>20</v>
@@ -760,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>12</v>
@@ -777,13 +774,13 @@
         <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>12</v>
@@ -791,16 +788,16 @@
     </row>
     <row r="13" spans="1:5" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>12</v>
@@ -808,16 +805,16 @@
     </row>
     <row r="14" spans="1:5" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>12</v>
@@ -825,16 +822,16 @@
     </row>
     <row r="15" spans="1:5" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>12</v>
@@ -842,16 +839,16 @@
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>12</v>
@@ -868,7 +865,7 @@
     </row>
     <row r="18" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>19</v>
@@ -894,7 +891,7 @@
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>18</v>
@@ -920,16 +917,16 @@
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>12</v>
